--- a/config_10.27/item_config.xlsx
+++ b/config_10.27/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="593">
   <si>
     <t>id|行号</t>
   </si>
@@ -513,9 +513,6 @@
     <t>prop_hammer_3</t>
   </si>
   <si>
-    <t>com_award_icon_cz3</t>
-  </si>
-  <si>
     <t>银锤</t>
   </si>
   <si>
@@ -1628,31 +1625,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"game_MiniGame</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>",</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>bygame_icon_ctgd</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2202,10 +2174,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_cz3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>银锤</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2431,6 +2399,38 @@
   </si>
   <si>
     <t>3dby_icon_hedansp_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2509,7 +2509,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2537,6 +2537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2583,7 +2589,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2684,6 +2690,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2964,11 +2985,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q165"/>
+  <dimension ref="A1:Q166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F163" sqref="F163:F165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3018,7 +3039,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>9</v>
@@ -3030,16 +3051,16 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P1" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q1" s="18" t="s">
         <v>334</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -3129,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3162,15 +3183,15 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -3228,15 +3249,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -3261,15 +3282,15 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -4126,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>114</v>
+        <v>589</v>
       </c>
       <c r="G33" s="3">
         <v>1</v>
@@ -4135,14 +4156,14 @@
         <v>19</v>
       </c>
       <c r="I33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -4156,16 +4177,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D34" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="G34" s="3">
         <v>1</v>
@@ -4174,14 +4195,14 @@
         <v>20</v>
       </c>
       <c r="I34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -4195,24 +4216,24 @@
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D35" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -4228,16 +4249,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E36" s="3">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="D36" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>127</v>
       </c>
       <c r="G36" s="3">
         <v>1</v>
@@ -4246,10 +4267,10 @@
         <v>3</v>
       </c>
       <c r="I36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="3" t="s">
@@ -4267,16 +4288,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D37" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="G37" s="3">
         <v>1</v>
@@ -4285,10 +4306,10 @@
         <v>5</v>
       </c>
       <c r="I37" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J37" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="3" t="s">
@@ -4303,16 +4324,16 @@
         <v>36</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E38" s="3">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="D38" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G38" s="3">
         <v>1</v>
@@ -4321,10 +4342,10 @@
         <v>10</v>
       </c>
       <c r="I38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>137</v>
       </c>
       <c r="K38" s="6"/>
       <c r="L38" s="3" t="s">
@@ -4339,25 +4360,25 @@
         <v>37</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
         <v>138</v>
-      </c>
-      <c r="D39" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>139</v>
       </c>
       <c r="G39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="J39" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="K39" s="6"/>
     </row>
@@ -4369,25 +4390,25 @@
         <v>38</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
         <v>142</v>
-      </c>
-      <c r="D40" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>143</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="K40" s="6"/>
     </row>
@@ -4399,25 +4420,25 @@
         <v>39</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
         <v>146</v>
-      </c>
-      <c r="D41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" t="s">
-        <v>147</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="K41" s="6"/>
     </row>
@@ -4429,7 +4450,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D42" s="3">
         <v>-1</v>
@@ -4450,10 +4471,10 @@
         <v>98</v>
       </c>
       <c r="J42" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>100</v>
@@ -4467,7 +4488,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D43" s="3">
         <v>-1</v>
@@ -4476,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -4485,10 +4506,10 @@
         <v>9</v>
       </c>
       <c r="I43" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="3" t="s">
@@ -4503,16 +4524,16 @@
         <v>42</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D44" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -4521,10 +4542,10 @@
         <v>8</v>
       </c>
       <c r="I44" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="3" t="s">
@@ -4539,16 +4560,16 @@
         <v>43</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="D45" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -4557,10 +4578,10 @@
         <v>6</v>
       </c>
       <c r="I45" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J45" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="3" t="s">
@@ -4575,16 +4596,16 @@
         <v>44</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="D46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -4593,10 +4614,10 @@
         <v>7</v>
       </c>
       <c r="I46" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J46" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>167</v>
       </c>
       <c r="K46" s="6"/>
       <c r="L46" s="3" t="s">
@@ -4611,28 +4632,28 @@
         <v>45</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1</v>
+      </c>
+      <c r="F47" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="J47" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="K47" s="6"/>
     </row>
@@ -4644,7 +4665,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D48" s="3">
         <v>-1</v>
@@ -4653,7 +4674,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -4662,10 +4683,10 @@
         <v>16</v>
       </c>
       <c r="I48" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J48" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
@@ -4678,7 +4699,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D49" s="3">
         <v>-1</v>
@@ -4687,7 +4708,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -4696,10 +4717,10 @@
         <v>15</v>
       </c>
       <c r="I49" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J49" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -4712,22 +4733,22 @@
         <v>48</v>
       </c>
       <c r="C50" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E50" s="3">
+        <v>1</v>
+      </c>
+      <c r="F50" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="10" t="s">
+      <c r="I50" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I50" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="J50" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K50" s="6"/>
     </row>
@@ -4739,7 +4760,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51" s="3">
         <v>-1</v>
@@ -4748,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G51" s="3">
         <v>1</v>
@@ -4757,13 +4778,13 @@
         <v>11</v>
       </c>
       <c r="I51" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J51" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="L51" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -4774,7 +4795,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D52" s="3">
         <v>-1</v>
@@ -4783,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G52" s="3">
         <v>1</v>
@@ -4792,13 +4813,13 @@
         <v>10</v>
       </c>
       <c r="I52" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="J52" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="J52" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="L52" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4809,7 +4830,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D53" s="3">
         <v>-1</v>
@@ -4818,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G53" s="3">
         <v>0</v>
@@ -4827,10 +4848,10 @@
         <v>1</v>
       </c>
       <c r="I53" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="J53" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4841,7 +4862,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D54" s="3">
         <v>-1</v>
@@ -4850,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G54" s="3">
         <v>1</v>
@@ -4859,13 +4880,13 @@
         <v>12</v>
       </c>
       <c r="I54" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="J54" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="J54" s="13" t="s">
-        <v>194</v>
-      </c>
       <c r="L54" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N54">
         <v>7</v>
@@ -4879,7 +4900,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D55" s="3">
         <v>-1</v>
@@ -4888,7 +4909,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G55" s="3">
         <v>1</v>
@@ -4897,13 +4918,13 @@
         <v>14</v>
       </c>
       <c r="I55" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="J55" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="J55" s="13" t="s">
-        <v>197</v>
-      </c>
       <c r="L55" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N55">
         <v>7</v>
@@ -4917,7 +4938,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D56" s="3">
         <v>-1</v>
@@ -4926,7 +4947,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
@@ -4935,13 +4956,13 @@
         <v>13</v>
       </c>
       <c r="I56" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J56" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="J56" s="13" t="s">
-        <v>200</v>
-      </c>
       <c r="L56" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N56">
         <v>7</v>
@@ -4955,16 +4976,16 @@
         <v>55</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1</v>
+      </c>
+      <c r="F57" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="D57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>202</v>
       </c>
       <c r="G57" s="3">
         <v>1</v>
@@ -4973,13 +4994,13 @@
         <v>6</v>
       </c>
       <c r="I57" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="L57" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="J57" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -4990,16 +5011,16 @@
         <v>56</v>
       </c>
       <c r="C58" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>205</v>
-      </c>
-      <c r="D58" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" t="s">
-        <v>206</v>
       </c>
       <c r="G58" s="3">
         <v>1</v>
@@ -5008,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="J58" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="J58" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="N58">
         <v>6</v>
@@ -5025,16 +5046,16 @@
         <v>57</v>
       </c>
       <c r="C59" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="D59" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="G59" s="3">
         <v>1</v>
@@ -5043,10 +5064,10 @@
         <v>2</v>
       </c>
       <c r="I59" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="J59" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>212</v>
       </c>
       <c r="N59">
         <v>6</v>
@@ -5060,28 +5081,28 @@
         <v>58</v>
       </c>
       <c r="C60" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D60" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="G60" s="3">
-        <v>1</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1</v>
-      </c>
-      <c r="I60" s="6" t="s">
+      <c r="J60" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="J60" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="N60">
         <v>6</v>
@@ -5095,16 +5116,16 @@
         <v>59</v>
       </c>
       <c r="C61" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="D61" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="G61" s="3">
         <v>1</v>
@@ -5113,10 +5134,10 @@
         <v>3</v>
       </c>
       <c r="I61" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="J61" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="J61" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="N61">
         <v>6</v>
@@ -5130,7 +5151,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D62" s="3">
         <v>-1</v>
@@ -5139,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G62" s="3">
         <v>1</v>
@@ -5148,10 +5169,10 @@
         <v>15</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J62" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N62">
         <v>6</v>
@@ -5165,31 +5186,31 @@
         <v>61</v>
       </c>
       <c r="C63" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E63" s="3">
-        <v>1</v>
-      </c>
-      <c r="F63" t="s">
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="3">
-        <v>1</v>
-      </c>
-      <c r="I63" s="6" t="s">
+      <c r="J63" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="J63" s="13" t="s">
-        <v>226</v>
-      </c>
       <c r="L63" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5200,16 +5221,16 @@
         <v>62</v>
       </c>
       <c r="C64" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="10" t="s">
         <v>227</v>
-      </c>
-      <c r="D64" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="G64" s="3">
         <v>1</v>
@@ -5218,10 +5239,10 @@
         <v>21</v>
       </c>
       <c r="I64" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="J64" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="J64" s="13" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5232,16 +5253,16 @@
         <v>63</v>
       </c>
       <c r="C65" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="11" t="s">
         <v>231</v>
-      </c>
-      <c r="D65" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>232</v>
       </c>
       <c r="G65" s="3">
         <v>1</v>
@@ -5250,13 +5271,13 @@
         <v>22</v>
       </c>
       <c r="I65" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="J65" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="J65" s="13" t="s">
+      <c r="L65" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="L65" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
@@ -5267,16 +5288,16 @@
         <v>64</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D66" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="10" t="s">
         <v>236</v>
-      </c>
-      <c r="D66" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>237</v>
       </c>
       <c r="G66" s="3">
         <v>0</v>
@@ -5285,10 +5306,10 @@
         <v>23</v>
       </c>
       <c r="I66" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="J66" s="13" t="s">
         <v>238</v>
-      </c>
-      <c r="J66" s="13" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
@@ -5299,16 +5320,16 @@
         <v>65</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="D67" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="G67" s="3">
         <v>0</v>
@@ -5317,10 +5338,10 @@
         <v>24</v>
       </c>
       <c r="I67" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="J67" s="13" t="s">
         <v>242</v>
-      </c>
-      <c r="J67" s="13" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
@@ -5331,16 +5352,16 @@
         <v>66</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="D68" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="G68" s="3">
         <v>0</v>
@@ -5349,10 +5370,10 @@
         <v>25</v>
       </c>
       <c r="I68" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J68" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="J68" s="13" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -5363,16 +5384,16 @@
         <v>67</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="D69" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>249</v>
       </c>
       <c r="G69" s="3">
         <v>0</v>
@@ -5381,10 +5402,10 @@
         <v>26</v>
       </c>
       <c r="I69" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J69" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="J69" s="13" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5395,31 +5416,31 @@
         <v>68</v>
       </c>
       <c r="C70" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D70" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D70" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" t="s">
-        <v>224</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="J70" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5430,28 +5451,28 @@
         <v>69</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D71" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D71" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E71" s="3">
-        <v>1</v>
-      </c>
-      <c r="F71" s="11" t="s">
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="3">
-        <v>1</v>
-      </c>
-      <c r="I71" s="6" t="s">
+      <c r="J71" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="J71" s="13" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5462,7 +5483,7 @@
         <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D72" s="3">
         <v>-1</v>
@@ -5471,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G72" s="3">
         <v>1</v>
@@ -5480,10 +5501,10 @@
         <v>1</v>
       </c>
       <c r="I72" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="J72" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="J72" s="13" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5494,31 +5515,31 @@
         <v>71</v>
       </c>
       <c r="C73" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D73" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="3">
-        <v>1</v>
-      </c>
-      <c r="I73" s="11" t="s">
+      <c r="J73" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="J73" s="13" t="s">
-        <v>264</v>
-      </c>
       <c r="L73" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N73">
         <v>3</v>
@@ -5532,31 +5553,31 @@
         <v>72</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D74" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="3">
-        <v>1</v>
-      </c>
-      <c r="I74" s="6" t="s">
+      <c r="J74" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J74" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="L74" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N74">
         <v>3</v>
@@ -5570,31 +5591,31 @@
         <v>73</v>
       </c>
       <c r="C75" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="D75" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="11" t="s">
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="3">
-        <v>1</v>
-      </c>
-      <c r="I75" s="6" t="s">
+      <c r="J75" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="J75" s="13" t="s">
-        <v>271</v>
-      </c>
       <c r="L75" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N75">
         <v>3</v>
@@ -5608,16 +5629,16 @@
         <v>74</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="D76" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -5626,10 +5647,10 @@
         <v>1</v>
       </c>
       <c r="I76" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="J76" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="J76" s="13" t="s">
-        <v>275</v>
       </c>
       <c r="L76" s="6"/>
       <c r="N76">
@@ -5644,16 +5665,16 @@
         <v>75</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="D77" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="G77" s="3">
         <v>1</v>
@@ -5662,13 +5683,13 @@
         <v>-100</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -5679,28 +5700,28 @@
         <v>76</v>
       </c>
       <c r="C78" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E78" s="3">
+        <v>1</v>
+      </c>
+      <c r="F78" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D78" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G78" s="3">
-        <v>1</v>
-      </c>
-      <c r="H78" s="3">
-        <v>1</v>
-      </c>
-      <c r="I78" s="6" t="s">
+      <c r="J78" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>282</v>
       </c>
       <c r="L78" s="6"/>
     </row>
@@ -5712,16 +5733,16 @@
         <v>78</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="11" t="s">
         <v>283</v>
-      </c>
-      <c r="D79" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>284</v>
       </c>
       <c r="G79" s="3">
         <v>0</v>
@@ -5730,10 +5751,10 @@
         <v>23</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -5744,7 +5765,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D80" s="3">
         <v>-1</v>
@@ -5753,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G80" s="3">
         <v>1</v>
@@ -5762,13 +5783,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5779,16 +5800,16 @@
         <v>80</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D81" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="D81" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="G81" s="3">
         <v>1</v>
@@ -5797,13 +5818,13 @@
         <v>24</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O81">
         <v>4</v>
@@ -5817,16 +5838,16 @@
         <v>81</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D82" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1</v>
+      </c>
+      <c r="F82" s="11" t="s">
         <v>291</v>
-      </c>
-      <c r="D82" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E82" s="3">
-        <v>1</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="G82" s="3">
         <v>1</v>
@@ -5835,13 +5856,13 @@
         <v>25</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O82">
         <v>5</v>
@@ -5855,16 +5876,16 @@
         <v>82</v>
       </c>
       <c r="C83" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D83" s="15">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="15">
+        <v>1</v>
+      </c>
+      <c r="F83" s="14" t="s">
         <v>336</v>
-      </c>
-      <c r="D83" s="15">
-        <v>-1</v>
-      </c>
-      <c r="E83" s="15">
-        <v>1</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>337</v>
       </c>
       <c r="G83" s="15">
         <v>1</v>
@@ -5873,10 +5894,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="J83" s="17" t="s">
         <v>346</v>
-      </c>
-      <c r="J83" s="17" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5887,7 +5908,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D84" s="19">
         <v>-1</v>
@@ -5896,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G84" s="19">
         <v>0</v>
@@ -5905,10 +5926,10 @@
         <v>23</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="85" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5919,7 +5940,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D85" s="3">
         <v>-1</v>
@@ -5928,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G85" s="3">
         <v>1</v>
@@ -5937,10 +5958,10 @@
         <v>24</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J85" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5951,7 +5972,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D86" s="3">
         <v>-1</v>
@@ -5960,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G86" s="3">
         <v>1</v>
@@ -5969,10 +5990,10 @@
         <v>25</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -5983,7 +6004,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D87" s="3">
         <v>-1</v>
@@ -5992,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G87" s="3">
         <v>1</v>
@@ -6001,10 +6022,10 @@
         <v>26</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6015,7 +6036,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D88" s="3">
         <v>-1</v>
@@ -6024,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G88" s="3">
         <v>1</v>
@@ -6033,10 +6054,10 @@
         <v>27</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6047,7 +6068,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D89" s="3">
         <v>-1</v>
@@ -6056,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G89" s="3">
         <v>1</v>
@@ -6065,10 +6086,10 @@
         <v>28</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6079,7 +6100,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D90" s="3">
         <v>-1</v>
@@ -6088,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G90" s="3">
         <v>1</v>
@@ -6097,10 +6118,10 @@
         <v>29</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6111,7 +6132,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D91" s="3">
         <v>-1</v>
@@ -6120,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G91" s="3">
         <v>1</v>
@@ -6129,10 +6150,10 @@
         <v>30</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6143,7 +6164,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D92" s="3">
         <v>-1</v>
@@ -6152,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G92" s="3">
         <v>1</v>
@@ -6161,10 +6182,10 @@
         <v>31</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6175,7 +6196,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D93" s="3">
         <v>-1</v>
@@ -6184,7 +6205,7 @@
         <v>1</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
@@ -6193,10 +6214,10 @@
         <v>32</v>
       </c>
       <c r="I93" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="J93" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6207,7 +6228,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D94" s="3">
         <v>-1</v>
@@ -6216,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G94" s="3">
         <v>1</v>
@@ -6225,13 +6246,13 @@
         <v>-100</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O94">
         <v>12</v>
@@ -6251,7 +6272,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D95" s="3">
         <v>-1</v>
@@ -6260,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G95" s="3">
         <v>0</v>
@@ -6269,10 +6290,10 @@
         <v>33</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
@@ -6283,7 +6304,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D96" s="3">
         <v>-1</v>
@@ -6292,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -6301,10 +6322,10 @@
         <v>34</v>
       </c>
       <c r="I96" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="J96" s="10" t="s">
         <v>339</v>
-      </c>
-      <c r="J96" s="10" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6315,16 +6336,16 @@
         <v>96</v>
       </c>
       <c r="C97" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D97" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>1</v>
+      </c>
+      <c r="F97" s="11" t="s">
         <v>350</v>
-      </c>
-      <c r="D97" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E97" s="3">
-        <v>1</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>351</v>
       </c>
       <c r="G97" s="3">
         <v>1</v>
@@ -6333,10 +6354,10 @@
         <v>35</v>
       </c>
       <c r="I97" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="J97" s="10" t="s">
         <v>348</v>
-      </c>
-      <c r="J97" s="10" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6347,7 +6368,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D98" s="3">
         <v>-1</v>
@@ -6356,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G98" s="3">
         <v>1</v>
@@ -6365,10 +6386,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J98" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N98">
         <v>9</v>
@@ -6382,7 +6403,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D99" s="3">
         <v>-1</v>
@@ -6391,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G99" s="3">
         <v>1</v>
@@ -6400,10 +6421,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J99" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N99">
         <v>9</v>
@@ -6417,7 +6438,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D100" s="3">
         <v>-1</v>
@@ -6426,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G100" s="3">
         <v>1</v>
@@ -6435,10 +6456,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N100">
         <v>9</v>
@@ -6452,7 +6473,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D101" s="3">
         <v>-1</v>
@@ -6461,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G101" s="3">
         <v>1</v>
@@ -6470,10 +6491,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N101">
         <v>9</v>
@@ -6487,7 +6508,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D102" s="3">
         <v>-1</v>
@@ -6496,7 +6517,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
@@ -6505,10 +6526,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J102" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N102">
         <v>9</v>
@@ -6522,7 +6543,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D103" s="3">
         <v>-1</v>
@@ -6531,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G103" s="3">
         <v>1</v>
@@ -6540,10 +6561,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J103" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N103">
         <v>9</v>
@@ -6557,7 +6578,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D104" s="3">
         <v>-1</v>
@@ -6566,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G104" s="3">
         <v>1</v>
@@ -6575,10 +6596,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N104">
         <v>9</v>
@@ -6592,7 +6613,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D105" s="3">
         <v>-1</v>
@@ -6601,7 +6622,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G105" s="3">
         <v>1</v>
@@ -6610,10 +6631,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N105">
         <v>9</v>
@@ -6627,7 +6648,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D106" s="3">
         <v>-1</v>
@@ -6636,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G106" s="3">
         <v>1</v>
@@ -6645,10 +6666,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N106">
         <v>9</v>
@@ -6662,7 +6683,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D107" s="3">
         <v>-1</v>
@@ -6671,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G107" s="3">
         <v>1</v>
@@ -6680,10 +6701,10 @@
         <v>32</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -6699,7 +6720,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D108" s="3">
         <v>-1</v>
@@ -6708,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G108" s="3">
         <v>1</v>
@@ -6717,10 +6738,10 @@
         <v>33</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J108" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -6736,7 +6757,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D109" s="3">
         <v>-1</v>
@@ -6745,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G109" s="3">
         <v>1</v>
@@ -6754,10 +6775,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="J109" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="J109" s="6" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6768,7 +6789,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D110" s="3">
         <v>-1</v>
@@ -6777,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G110" s="3">
         <v>1</v>
@@ -6786,14 +6807,12 @@
         <v>34</v>
       </c>
       <c r="I110" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J110" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="J110" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="L110" s="6" t="s">
-        <v>385</v>
-      </c>
+      <c r="L110" s="6"/>
     </row>
     <row r="111" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
@@ -6803,31 +6822,31 @@
         <v>110</v>
       </c>
       <c r="C111" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="D111" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>1</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>1</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D111" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="3">
-        <v>1</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="G111" s="3">
-        <v>1</v>
-      </c>
-      <c r="H111" s="3">
-        <v>1</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="J111" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N111">
         <v>3</v>
@@ -6841,31 +6860,31 @@
         <v>111</v>
       </c>
       <c r="C112" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D112" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="3">
+        <v>1</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="D112" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="3">
-        <v>1</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="G112" s="3">
-        <v>1</v>
-      </c>
-      <c r="H112" s="3">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>405</v>
-      </c>
       <c r="J112" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N112">
         <v>3</v>
@@ -6879,7 +6898,7 @@
         <v>112</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D113" s="3">
         <v>-1</v>
@@ -6888,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G113" s="3">
         <v>1</v>
@@ -6897,13 +6916,13 @@
         <v>1</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N113">
         <v>3</v>
@@ -6917,7 +6936,7 @@
         <v>113</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D114" s="3">
         <v>-1</v>
@@ -6926,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G114" s="3">
         <v>1</v>
@@ -6935,13 +6954,13 @@
         <v>1</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J114" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N114">
         <v>3</v>
@@ -6955,7 +6974,7 @@
         <v>114</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D115" s="3">
         <v>-1</v>
@@ -6964,7 +6983,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G115" s="3">
         <v>1</v>
@@ -6973,13 +6992,13 @@
         <v>1</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N115">
         <v>3</v>
@@ -6993,7 +7012,7 @@
         <v>115</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D116" s="3">
         <v>-1</v>
@@ -7002,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G116" s="3">
         <v>1</v>
@@ -7011,13 +7030,13 @@
         <v>1</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N116">
         <v>3</v>
@@ -7031,7 +7050,7 @@
         <v>116</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D117" s="3">
         <v>-1</v>
@@ -7040,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G117" s="3">
         <v>0</v>
@@ -7049,10 +7068,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
@@ -7065,7 +7084,7 @@
         <v>117</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D118" s="3">
         <v>-1</v>
@@ -7074,7 +7093,7 @@
         <v>1</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G118" s="3">
         <v>0</v>
@@ -7083,10 +7102,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="J118" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="J118" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7097,7 +7116,7 @@
         <v>118</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D119" s="3">
         <v>-1</v>
@@ -7106,7 +7125,7 @@
         <v>1</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G119" s="3">
         <v>0</v>
@@ -7115,10 +7134,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7129,7 +7148,7 @@
         <v>119</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D120" s="3">
         <v>-1</v>
@@ -7138,7 +7157,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G120" s="3">
         <v>0</v>
@@ -7147,10 +7166,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7161,7 +7180,7 @@
         <v>120</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D121" s="3">
         <v>-1</v>
@@ -7170,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G121" s="3">
         <v>0</v>
@@ -7179,10 +7198,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7193,7 +7212,7 @@
         <v>121</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D122" s="3">
         <v>-1</v>
@@ -7202,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G122" s="3">
         <v>0</v>
@@ -7211,10 +7230,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7225,7 +7244,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D123" s="3">
         <v>-1</v>
@@ -7234,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
@@ -7243,10 +7262,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -7260,7 +7279,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D124" s="3">
         <v>-1</v>
@@ -7269,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
@@ -7278,10 +7297,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -7295,7 +7314,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D125" s="3">
         <v>-1</v>
@@ -7304,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
@@ -7313,10 +7332,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -7330,7 +7349,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="11" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D126" s="3">
         <v>-1</v>
@@ -7339,7 +7358,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
@@ -7348,10 +7367,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -7365,7 +7384,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D127" s="3">
         <v>-1</v>
@@ -7374,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
@@ -7383,10 +7402,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -7400,7 +7419,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D128" s="3">
         <v>-1</v>
@@ -7409,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
@@ -7418,10 +7437,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="J128" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -7435,7 +7454,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D129" s="3">
         <v>-1</v>
@@ -7444,7 +7463,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G129" s="3">
         <v>1</v>
@@ -7453,10 +7472,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -7470,16 +7489,16 @@
         <v>129</v>
       </c>
       <c r="C130" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D130" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="10" t="s">
         <v>467</v>
-      </c>
-      <c r="D130" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E130" s="3">
-        <v>1</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>469</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
@@ -7488,10 +7507,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J130" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -7505,7 +7524,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D131" s="3">
         <v>-1</v>
@@ -7514,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G131" s="3">
         <v>0</v>
@@ -7523,10 +7542,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7537,7 +7556,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D132" s="3">
         <v>-1</v>
@@ -7546,7 +7565,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G132" s="3">
         <v>0</v>
@@ -7555,10 +7574,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J132" s="6" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7569,7 +7588,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D133" s="3">
         <v>-1</v>
@@ -7578,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G133" s="3">
         <v>0</v>
@@ -7587,10 +7606,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="J133" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7601,7 +7620,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D134" s="3">
         <v>-1</v>
@@ -7610,7 +7629,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G134" s="3">
         <v>0</v>
@@ -7619,10 +7638,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7633,7 +7652,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D135" s="3">
         <v>-1</v>
@@ -7642,7 +7661,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G135" s="3">
         <v>0</v>
@@ -7651,10 +7670,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7665,7 +7684,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D136" s="3">
         <v>-1</v>
@@ -7674,7 +7693,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G136" s="3">
         <v>0</v>
@@ -7683,10 +7702,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7697,7 +7716,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D137" s="3">
         <v>-1</v>
@@ -7706,7 +7725,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G137" s="3">
         <v>0</v>
@@ -7715,10 +7734,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7729,7 +7748,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D138" s="3">
         <v>-1</v>
@@ -7738,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G138" s="3">
         <v>0</v>
@@ -7747,10 +7766,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7761,7 +7780,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D139" s="3">
         <v>-1</v>
@@ -7770,7 +7789,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
@@ -7779,10 +7798,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7793,7 +7812,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D140" s="3">
         <v>-1</v>
@@ -7802,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G140" s="3">
         <v>0</v>
@@ -7811,10 +7830,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7825,7 +7844,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D141" s="3">
         <v>-1</v>
@@ -7834,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
@@ -7843,10 +7862,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7857,7 +7876,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D142" s="3">
         <v>-1</v>
@@ -7866,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
@@ -7875,10 +7894,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7889,7 +7908,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D143" s="3">
         <v>-1</v>
@@ -7898,7 +7917,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
@@ -7907,10 +7926,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7921,16 +7940,16 @@
         <v>143</v>
       </c>
       <c r="C144" t="s">
+        <v>503</v>
+      </c>
+      <c r="D144" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1</v>
+      </c>
+      <c r="F144" s="10" t="s">
         <v>505</v>
-      </c>
-      <c r="D144" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E144" s="3">
-        <v>1</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>507</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
@@ -7939,10 +7958,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -7953,7 +7972,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D145" s="3">
         <v>-1</v>
@@ -7962,7 +7981,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
@@ -7971,10 +7990,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -7985,7 +8004,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="24" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D146" s="23">
         <v>-1</v>
@@ -7994,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G146" s="23">
         <v>0</v>
@@ -8003,10 +8022,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="26" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J146" s="27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8017,7 +8036,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="24" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D147" s="23">
         <v>-1</v>
@@ -8026,7 +8045,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="25" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="G147" s="23">
         <v>0</v>
@@ -8035,10 +8054,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="26" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="J147" s="27" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8049,7 +8068,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="24" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D148" s="23">
         <v>-1</v>
@@ -8058,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="25" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G148" s="23">
         <v>0</v>
@@ -8067,10 +8086,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="26" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J148" s="27" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8081,7 +8100,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="24" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D149" s="23">
         <v>-1</v>
@@ -8090,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G149" s="23">
         <v>0</v>
@@ -8099,10 +8118,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="26" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J149" s="27" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8113,7 +8132,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="24" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D150" s="23">
         <v>-1</v>
@@ -8122,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="25" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="G150" s="23">
         <v>0</v>
@@ -8131,10 +8150,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="26" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J150" s="27" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="151" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8145,7 +8164,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D151" s="23">
         <v>-1</v>
@@ -8154,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="F151" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G151" s="23">
         <v>0</v>
@@ -8163,10 +8182,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="26" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="J151" s="27" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8177,7 +8196,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="24" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D152" s="23">
         <v>-1</v>
@@ -8186,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="25" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G152" s="23">
         <v>0</v>
@@ -8195,10 +8214,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="26" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="J152" s="27" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="153" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8209,7 +8228,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="24" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D153" s="23">
         <v>-1</v>
@@ -8218,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="25" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="G153" s="23">
         <v>0</v>
@@ -8227,10 +8246,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="26" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J153" s="27" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="154" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8241,7 +8260,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="24" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D154" s="23">
         <v>-1</v>
@@ -8250,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G154" s="23">
         <v>0</v>
@@ -8259,10 +8278,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="26" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="J154" s="27" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -8273,7 +8292,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D155" s="3">
         <v>-1</v>
@@ -8282,7 +8301,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G155" s="3">
         <v>0</v>
@@ -8291,10 +8310,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8305,16 +8324,16 @@
         <v>155</v>
       </c>
       <c r="C156" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="D156" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E156" s="28">
+        <v>1</v>
+      </c>
+      <c r="F156" s="30" t="s">
         <v>557</v>
-      </c>
-      <c r="D156" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E156" s="28">
-        <v>1</v>
-      </c>
-      <c r="F156" s="30" t="s">
-        <v>560</v>
       </c>
       <c r="G156" s="28">
         <v>0</v>
@@ -8323,10 +8342,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="31" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="J156" s="32" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8337,7 +8356,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="33" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D157" s="23">
         <v>-1</v>
@@ -8346,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="25" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G157" s="23">
         <v>1</v>
@@ -8355,13 +8374,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="26" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="J157" s="26" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8372,7 +8391,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D158" s="23">
         <v>-1</v>
@@ -8381,7 +8400,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G158" s="23">
         <v>1</v>
@@ -8390,13 +8409,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="26" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="J158" s="26" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8407,7 +8426,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="33" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D159" s="23">
         <v>-1</v>
@@ -8416,7 +8435,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="25" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G159" s="23">
         <v>1</v>
@@ -8425,13 +8444,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="26" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J159" s="26" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="160" spans="1:12" ht="16.5" x14ac:dyDescent="0.2">
@@ -8442,7 +8461,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="33" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D160" s="23">
         <v>-1</v>
@@ -8451,7 +8470,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G160" s="23">
         <v>1</v>
@@ -8460,10 +8479,10 @@
         <v>34</v>
       </c>
       <c r="I160" s="26" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J160" s="26" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8474,7 +8493,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="33" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D161" s="23">
         <v>-1</v>
@@ -8483,7 +8502,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G161" s="23">
         <v>1</v>
@@ -8492,10 +8511,10 @@
         <v>34</v>
       </c>
       <c r="I161" s="26" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="J161" s="26" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8506,7 +8525,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="33" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D162" s="23">
         <v>-1</v>
@@ -8515,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G162" s="23">
         <v>1</v>
@@ -8524,10 +8543,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="26" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J162" s="26" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8538,7 +8557,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="33" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D163" s="23">
         <v>-1</v>
@@ -8547,7 +8566,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G163" s="23">
         <v>1</v>
@@ -8556,10 +8575,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="26" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="J163" s="26" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8570,7 +8589,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="33" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D164" s="23">
         <v>-1</v>
@@ -8579,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G164" s="23">
         <v>1</v>
@@ -8588,10 +8607,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="26" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="J164" s="26" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -8602,7 +8621,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="33" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D165" s="23">
         <v>-1</v>
@@ -8611,7 +8630,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G165" s="23">
         <v>1</v>
@@ -8620,10 +8639,42 @@
         <v>34</v>
       </c>
       <c r="I165" s="26" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J165" s="26" t="s">
-        <v>577</v>
+        <v>574</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="36" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="34">
+        <v>165</v>
+      </c>
+      <c r="B166" s="34">
+        <v>165</v>
+      </c>
+      <c r="C166" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="D166" s="34">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="34">
+        <v>1</v>
+      </c>
+      <c r="F166" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="G166" s="34">
+        <v>0</v>
+      </c>
+      <c r="H166" s="34">
+        <v>33</v>
+      </c>
+      <c r="I166" s="37" t="s">
+        <v>585</v>
+      </c>
+      <c r="J166" s="37" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>
